--- a/ORSD/footologyMODA documents.xlsx
+++ b/ORSD/footologyMODA documents.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arditbacaj/Desktop/Uni/Bachelor Thesis/thesis/ORSD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arditbacaj/Desktop/Uni/Bachelor Thesis/Ardit Bacaj Bachelorthesis Updated/ORSD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9255DFD6-A180-D248-B19E-0B9FFB2C7C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FBCF0F-5724-AA41-B843-CC9CDE0965BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="176">
   <si>
     <t>Material entity</t>
   </si>
@@ -396,90 +396,6 @@
     <t>This class shows the parent class "Position" which includes subclasses of positions of a player</t>
   </si>
   <si>
-    <t>Defender</t>
-  </si>
-  <si>
-    <t>A generic subclass for defenders in football</t>
-  </si>
-  <si>
-    <t>Forward</t>
-  </si>
-  <si>
-    <t>A generic class for the position Forward including subclasses</t>
-  </si>
-  <si>
-    <t>Goalkeeper</t>
-  </si>
-  <si>
-    <t>The goalkeeper of a Team</t>
-  </si>
-  <si>
-    <t>Midfielder</t>
-  </si>
-  <si>
-    <t>The generic class of a midfielder, including subclasses</t>
-  </si>
-  <si>
-    <t>CenterBack</t>
-  </si>
-  <si>
-    <t>The centerback position of a player</t>
-  </si>
-  <si>
-    <t>LeftBack</t>
-  </si>
-  <si>
-    <t>A left back position of a player</t>
-  </si>
-  <si>
-    <t>A right back position of a player</t>
-  </si>
-  <si>
-    <t>RightBack</t>
-  </si>
-  <si>
-    <t>LeftWing</t>
-  </si>
-  <si>
-    <t>The left wing position of a player</t>
-  </si>
-  <si>
-    <t>RightWing</t>
-  </si>
-  <si>
-    <t>The right wing position of a player</t>
-  </si>
-  <si>
-    <t>Striker</t>
-  </si>
-  <si>
-    <t>The main striker position of a player</t>
-  </si>
-  <si>
-    <t>Defensive Midfielder</t>
-  </si>
-  <si>
-    <t>The defensive midfielder position of a player</t>
-  </si>
-  <si>
-    <t>Left Midfield</t>
-  </si>
-  <si>
-    <t>The left midfield position of a player</t>
-  </si>
-  <si>
-    <t>Offensive Midfielder</t>
-  </si>
-  <si>
-    <t>The offensive midfielder position of a player</t>
-  </si>
-  <si>
-    <t>Right Midfield</t>
-  </si>
-  <si>
-    <t>The right midfield position of a player</t>
-  </si>
-  <si>
     <t>Award Season</t>
   </si>
   <si>
@@ -622,6 +538,18 @@
   </si>
   <si>
     <t>managedBy</t>
+  </si>
+  <si>
+    <t>participatesIn</t>
+  </si>
+  <si>
+    <t>The information about a player during a specific Match</t>
+  </si>
+  <si>
+    <t>occuredInMatch</t>
+  </si>
+  <si>
+    <t>The performace stats captured during a match</t>
   </si>
 </sst>
 </file>
@@ -939,7 +867,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView zoomScale="165" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1070,116 +998,47 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" t="s">
-        <v>125</v>
-      </c>
+      <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" t="s">
-        <v>127</v>
-      </c>
+      <c r="A17" s="6"/>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" t="s">
-        <v>131</v>
-      </c>
+      <c r="A19" s="6"/>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" t="s">
-        <v>133</v>
-      </c>
+      <c r="A20" s="6"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" t="s">
-        <v>135</v>
-      </c>
+      <c r="A21" s="6"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" t="s">
-        <v>136</v>
-      </c>
+      <c r="A22" s="6"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" t="s">
-        <v>139</v>
-      </c>
+      <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" t="s">
-        <v>141</v>
-      </c>
+      <c r="A24" s="6"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B25" t="s">
-        <v>143</v>
-      </c>
+      <c r="A25" s="6"/>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" t="s">
-        <v>145</v>
-      </c>
+      <c r="A26" s="6"/>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27" t="s">
-        <v>147</v>
-      </c>
+      <c r="A27" s="6"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" t="s">
-        <v>149</v>
-      </c>
+      <c r="A28" s="6"/>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B29" t="s">
-        <v>151</v>
-      </c>
+      <c r="A29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1193,7 +1052,7 @@
   </sheetPr>
   <dimension ref="A1:E990"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="159" workbookViewId="0">
+    <sheetView zoomScale="159" workbookViewId="0">
       <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
@@ -1300,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>29</v>
@@ -1314,13 +1173,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1328,10 +1187,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>17</v>
@@ -1384,10 +1243,10 @@
         <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>17</v>
@@ -1412,10 +1271,10 @@
         <v>33</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>17</v>
@@ -1664,10 +1523,10 @@
         <v>43</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>17</v>
@@ -1748,13 +1607,13 @@
         <v>98</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1762,13 +1621,13 @@
         <v>98</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1779,7 +1638,7 @@
         <v>117</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>17</v>
@@ -1846,13 +1705,13 @@
         <v>13</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -1860,7 +1719,7 @@
         <v>22</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
         <v>123</v>
@@ -4708,10 +4567,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="144" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4754,7 +4613,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>30</v>
@@ -4765,13 +4624,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>30</v>
@@ -4782,13 +4641,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>30</v>
@@ -4799,13 +4658,13 @@
         <v>22</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>30</v>
@@ -4816,13 +4675,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>30</v>
@@ -4833,13 +4692,13 @@
         <v>43</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>30</v>
@@ -4867,13 +4726,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>30</v>
@@ -4901,13 +4760,13 @@
         <v>41</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="E11" s="7">
         <v>1</v>
@@ -4935,13 +4794,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>30</v>
@@ -4969,13 +4828,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5003,13 +4862,13 @@
         <v>41</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>30</v>
@@ -5037,7 +4896,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>11</v>
@@ -5054,7 +4913,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>33</v>
@@ -5068,16 +4927,16 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5105,15 +4964,49 @@
         <v>96</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>30</v>
       </c>
     </row>
